--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-value-set.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-value-set.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -288,7 +288,7 @@
     <t>ValueSet.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {http://dsf.dev/fhir/StructureDefinition/meta|2.0.0}
 </t>
   </si>
   <si>
@@ -346,7 +346,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -733,7 +733,7 @@
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|4.0.1</t>
   </si>
   <si>
     <t>Definition.jurisdiction</t>
@@ -1035,7 +1035,7 @@
     <t>Details of how a designation would be used.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/designation-use</t>
+    <t>http://hl7.org/fhir/ValueSet/designation-use|4.0.1</t>
   </si>
   <si>
     <t>ValueSet.compose.include.concept.designation.value</t>
@@ -1110,7 +1110,7 @@
     <t>ValueSet.compose.include.valueSet</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ValueSet)
+    <t xml:space="preserve">canonical(ValueSet|4.0.1)
 </t>
   </si>
   <si>
@@ -1691,17 +1691,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.91015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.3125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="45.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1710,26 +1710,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.1171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="37.6953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-value-set.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
